--- a/benchmarking/vllm/latency-throughput/latency-throughput.xlsx
+++ b/benchmarking/vllm/latency-throughput/latency-throughput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\prefill-500-3\decoding2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\prefill-500-3\decoding-lt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE98A99-F6B1-4E82-9F4C-5B0073834AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A6E82-DD86-46D2-AB50-8403F653DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{089BD247-ECC2-4402-BF61-D1020ED0F24F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>vllm GPTQ  1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,8 +225,21 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>吞吐 关系图</a:t>
+              <a:t>吞吐 关系图 </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>序列长度 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>32)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -310,28 +323,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0487310000000001</c:v>
+                  <c:v>2.0444390000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1216870000000001</c:v>
+                  <c:v>2.1302699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2161010000000001</c:v>
+                  <c:v>2.2132399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3820399999999999</c:v>
+                  <c:v>2.3822779999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6628970000000001</c:v>
+                  <c:v>2.7046199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0040019999999998</c:v>
+                  <c:v>3.9429660000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1593059999999999</c:v>
+                  <c:v>6.1802859999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2802050000000005</c:v>
+                  <c:v>9.2971319999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,28 +356,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>488.10702820428838</c:v>
+                  <c:v>489.13166200000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>942.64611132556308</c:v>
+                  <c:v>938.84812499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1804.9718853066713</c:v>
+                  <c:v>1807.3053970000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3358.4658527984416</c:v>
+                  <c:v>3358.1297039999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6008.4937569872209</c:v>
+                  <c:v>5915.8025390000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7992.0039999980027</c:v>
+                  <c:v>8115.7170150000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10390.781039292413</c:v>
+                  <c:v>10355.507137000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13792.798758217086</c:v>
+                  <c:v>13767.685907999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,28 +434,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.8135780000000001</c:v>
+                  <c:v>2.8285979999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9139520000000001</c:v>
+                  <c:v>2.924919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9854769999999999</c:v>
+                  <c:v>2.9957289999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1490330000000002</c:v>
+                  <c:v>3.157616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4329890000000001</c:v>
+                  <c:v>3.4780500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9176219999999997</c:v>
+                  <c:v>4.8756599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.221222</c:v>
+                  <c:v>7.2844030000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.878563</c:v>
+                  <c:v>11.007547000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,28 +467,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>355.41932727651408</c:v>
+                  <c:v>353.53203000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>686.35310396327736</c:v>
+                  <c:v>683.77958899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1339.8193990441059</c:v>
+                  <c:v>1335.2340630000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2540.4624213210845</c:v>
+                  <c:v>2533.557233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4660.6615983913725</c:v>
+                  <c:v>4600.278585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6507.2101922433249</c:v>
+                  <c:v>6563.2140829999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8862.7658864386103</c:v>
+                  <c:v>8785.8951990000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11766.259937089118</c:v>
+                  <c:v>11628.385107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,28 +545,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6334270000000002</c:v>
+                  <c:v>4.6451089999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7361849999999999</c:v>
+                  <c:v>4.7359470000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8098559999999999</c:v>
+                  <c:v>4.8215389999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1603320000000004</c:v>
+                  <c:v>5.1407809999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5947300000000002</c:v>
+                  <c:v>5.5627820000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4994560000000003</c:v>
+                  <c:v>7.3821539999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.888814999999999</c:v>
+                  <c:v>10.927439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.911507</c:v>
+                  <c:v>16.933679999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,28 +578,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>215.8229750894964</c:v>
+                  <c:v>215.280193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>422.28080195347098</c:v>
+                  <c:v>422.302054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>831.62572850413824</c:v>
+                  <c:v>829.61064099999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550.2878496964922</c:v>
+                  <c:v>1556.1836559999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2859.8341653663356</c:v>
+                  <c:v>2876.2585290000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4266.976164671144</c:v>
+                  <c:v>4334.7778959999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5877.5909040607266</c:v>
+                  <c:v>5856.8161799999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7568.8109876902154</c:v>
+                  <c:v>7558.9005559999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,28 +656,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.6664219999999998</c:v>
+                  <c:v>6.6747670000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7586899999999996</c:v>
+                  <c:v>6.7577360000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8929200000000002</c:v>
+                  <c:v>6.8788530000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1554180000000001</c:v>
+                  <c:v>7.142544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7934270000000003</c:v>
+                  <c:v>7.8153610000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6819400000000009</c:v>
+                  <c:v>9.6707339999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.581514</c:v>
+                  <c:v>13.571501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.86458</c:v>
+                  <c:v>22.891998000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,28 +689,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150.00550520204092</c:v>
+                  <c:v>149.81797399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.91533270500645</c:v>
+                  <c:v>295.95709900000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>580.30558892312695</c:v>
+                  <c:v>581.49230599999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1118.0339149997947</c:v>
+                  <c:v>1120.049135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2053.0121087937309</c:v>
+                  <c:v>2047.2502750000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3305.1227336670127</c:v>
+                  <c:v>3308.9524190000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4712.2875991586798</c:v>
+                  <c:v>4715.7643829999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5598.178492672947</c:v>
+                  <c:v>5591.4734209999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,28 +767,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10.874033000000001</c:v>
+                  <c:v>10.871172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.024475000000001</c:v>
+                  <c:v>11.00421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.328459000000001</c:v>
+                  <c:v>11.316060999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.650085000000001</c:v>
+                  <c:v>11.642694000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.430429</c:v>
+                  <c:v>12.427092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.908314000000001</c:v>
+                  <c:v>14.88471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.739554999999999</c:v>
+                  <c:v>20.783901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.380291</c:v>
+                  <c:v>36.408901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,28 +800,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>91.962200225068287</c:v>
+                  <c:v>91.986402999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181.41453447896612</c:v>
+                  <c:v>181.74862999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353.09303763203803</c:v>
+                  <c:v>353.47989000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>686.69026878344664</c:v>
+                  <c:v>687.12616500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287.1639426121174</c:v>
+                  <c:v>1287.5096209999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2146.4533145733312</c:v>
+                  <c:v>2149.85709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3085.8907049837858</c:v>
+                  <c:v>3079.3063990000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3518.3885692393169</c:v>
+                  <c:v>3515.62381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,28 +878,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>21.88015</c:v>
+                  <c:v>21.865606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.068739000000001</c:v>
+                  <c:v>22.088051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.298098</c:v>
+                  <c:v>22.356749000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.595167</c:v>
+                  <c:v>22.603034999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.147345000000001</c:v>
+                  <c:v>23.131132000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.555133999999999</c:v>
+                  <c:v>25.554656999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.839225999999996</c:v>
+                  <c:v>33.796548999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.969425000000001</c:v>
+                  <c:v>60.020207999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,28 +911,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>45.703525798497722</c:v>
+                  <c:v>45.733924999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.625930190211591</c:v>
+                  <c:v>90.546695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179.38749753454309</c:v>
+                  <c:v>178.91689299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>354.05801603502198</c:v>
+                  <c:v>353.93477100000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>691.223982707304</c:v>
+                  <c:v>691.70846900000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1252.1945688095395</c:v>
+                  <c:v>1252.2179430000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1891.2962134535821</c:v>
+                  <c:v>1893.684479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2134.4209987005879</c:v>
+                  <c:v>2132.6150560000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1155,1020 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>延迟</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>吞吐 关系图 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>序列长度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>512)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0678040000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2165780000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4213789999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8257370000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5181049999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5773260000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1731549999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.378475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>483.60475000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>902.291922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1651.9511620000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2831.119811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4547.9034970000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5737.5166929999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6976.8799479999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8323.3219439999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8920170000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1135079999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.408909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9651390000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1865579999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1868169999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.659000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.754358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>345.77938999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>642.36220200000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1173.3959990000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017.5835489999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3084.8976739999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3908.7229309999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4685.5551750000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5388.4848590000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7767160000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0919059999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7590009999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7915919999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8183880000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.901711000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.900269999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.626151999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>209.34884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392.780259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694.56493499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1177.9271220000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1814.39057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2301.8750089999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2677.7939649999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2635.922247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.9217680000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2772500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9510209999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2642310000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.965275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.816782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.707100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.661324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>144.471755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.82907999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503.08003200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863.53635099999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1337.2028849999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1796.0594679999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2057.234434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060.6389239999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.251925999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.946440000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.941837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.814377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.736124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.643183000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.660826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.580002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>88.873670000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.413894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.07512600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.01596500000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>853.96531100000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1055.0585229999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1054.3037079999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1057.7704659999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32B 吞吐</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21.948575999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.280215999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.794723999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.685217000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.381637999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.396180999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.421215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.407624999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45.561042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.765736000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.479207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.76342599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.15919600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450.890242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450.42803900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450.678831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F577-4DDA-BE36-976D370FBAFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="206016208"/>
+        <c:axId val="205992208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="206016208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205992208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205992208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206016208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1698,20 +2724,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>351525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1731,6 +3273,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165787</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF15193-C5B3-9554-34B5-E3D3DCBF6A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2056,15 +3634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60687B43-1504-4C8F-B5AB-4F7C24098633}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -2101,373 +3679,681 @@
       <c r="M2" t="s">
         <v>19</v>
       </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2.0487310000000001</v>
+        <v>2.0444390000000001</v>
       </c>
       <c r="C3">
-        <f>1*1000/B3</f>
-        <v>488.10702820428838</v>
+        <v>489.13166200000001</v>
       </c>
       <c r="D3">
-        <v>2.8135780000000001</v>
+        <v>2.8285979999999999</v>
       </c>
       <c r="E3">
-        <f>1*1000/D3</f>
-        <v>355.41932727651408</v>
+        <v>353.53203000000002</v>
       </c>
       <c r="F3">
-        <v>4.6334270000000002</v>
+        <v>4.6451089999999997</v>
       </c>
       <c r="G3">
-        <f>1*1000/F3</f>
-        <v>215.8229750894964</v>
+        <v>215.280193</v>
       </c>
       <c r="H3">
-        <v>6.6664219999999998</v>
+        <v>6.6747670000000001</v>
       </c>
       <c r="I3">
-        <v>150.00550520204092</v>
+        <v>149.81797399999999</v>
       </c>
       <c r="J3">
-        <v>10.874033000000001</v>
+        <v>10.871172</v>
       </c>
       <c r="K3">
-        <f>1*1000/J3</f>
-        <v>91.962200225068287</v>
+        <v>91.986402999999996</v>
       </c>
       <c r="L3">
-        <v>21.88015</v>
+        <v>21.865606</v>
       </c>
       <c r="M3">
-        <f>1*1000/L3</f>
-        <v>45.703525798497722</v>
+        <v>45.733924999999999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.0678040000000002</v>
+      </c>
+      <c r="R3">
+        <v>483.60475000000002</v>
+      </c>
+      <c r="S3">
+        <v>2.8920170000000001</v>
+      </c>
+      <c r="T3">
+        <v>345.77938999999998</v>
+      </c>
+      <c r="U3">
+        <v>4.7767160000000004</v>
+      </c>
+      <c r="V3">
+        <v>209.34884</v>
+      </c>
+      <c r="W3">
+        <v>6.9217680000000001</v>
+      </c>
+      <c r="X3">
+        <v>144.471755</v>
+      </c>
+      <c r="Y3">
+        <v>11.251925999999999</v>
+      </c>
+      <c r="Z3">
+        <v>88.873670000000004</v>
+      </c>
+      <c r="AA3">
+        <v>21.948575999999999</v>
+      </c>
+      <c r="AB3">
+        <v>45.561042</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2.1216870000000001</v>
+        <v>2.1302699999999999</v>
       </c>
       <c r="C4">
-        <f>2*1000/B4</f>
-        <v>942.64611132556308</v>
+        <v>938.84812499999998</v>
       </c>
       <c r="D4">
-        <v>2.9139520000000001</v>
+        <v>2.924919</v>
       </c>
       <c r="E4">
-        <f>2*1000/D4</f>
-        <v>686.35310396327736</v>
+        <v>683.77958899999999</v>
       </c>
       <c r="F4">
-        <v>4.7361849999999999</v>
+        <v>4.7359470000000004</v>
       </c>
       <c r="G4">
-        <f>2*1000/F4</f>
-        <v>422.28080195347098</v>
+        <v>422.302054</v>
       </c>
       <c r="H4">
-        <v>6.7586899999999996</v>
+        <v>6.7577360000000004</v>
       </c>
       <c r="I4">
-        <v>295.91533270500645</v>
+        <v>295.95709900000003</v>
       </c>
       <c r="J4">
-        <v>11.024475000000001</v>
+        <v>11.00421</v>
       </c>
       <c r="K4">
-        <f>2*1000/J4</f>
-        <v>181.41453447896612</v>
+        <v>181.74862999999999</v>
       </c>
       <c r="L4">
-        <v>22.068739000000001</v>
+        <v>22.088051</v>
       </c>
       <c r="M4">
-        <f>2*1000/L4</f>
-        <v>90.625930190211591</v>
+        <v>90.546695</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2.2165780000000002</v>
+      </c>
+      <c r="R4">
+        <v>902.291922</v>
+      </c>
+      <c r="S4">
+        <v>3.1135079999999999</v>
+      </c>
+      <c r="T4">
+        <v>642.36220200000002</v>
+      </c>
+      <c r="U4">
+        <v>5.0919059999999998</v>
+      </c>
+      <c r="V4">
+        <v>392.780259</v>
+      </c>
+      <c r="W4">
+        <v>7.2772500000000004</v>
+      </c>
+      <c r="X4">
+        <v>274.82907999999998</v>
+      </c>
+      <c r="Y4">
+        <v>11.946440000000001</v>
+      </c>
+      <c r="Z4">
+        <v>167.413894</v>
+      </c>
+      <c r="AA4">
+        <v>22.280215999999999</v>
+      </c>
+      <c r="AB4">
+        <v>89.765736000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2.2161010000000001</v>
+        <v>2.2132399999999999</v>
       </c>
       <c r="C5">
-        <f>4*1000/B5</f>
-        <v>1804.9718853066713</v>
+        <v>1807.3053970000001</v>
       </c>
       <c r="D5">
-        <v>2.9854769999999999</v>
+        <v>2.9957289999999999</v>
       </c>
       <c r="E5">
-        <f>4*1000/D5</f>
-        <v>1339.8193990441059</v>
+        <v>1335.2340630000001</v>
       </c>
       <c r="F5">
-        <v>4.8098559999999999</v>
+        <v>4.8215389999999996</v>
       </c>
       <c r="G5">
-        <f>4*1000/F5</f>
-        <v>831.62572850413824</v>
+        <v>829.61064099999999</v>
       </c>
       <c r="H5">
-        <v>6.8929200000000002</v>
+        <v>6.8788530000000003</v>
       </c>
       <c r="I5">
-        <v>580.30558892312695</v>
+        <v>581.49230599999999</v>
       </c>
       <c r="J5">
-        <v>11.328459000000001</v>
+        <v>11.316060999999999</v>
       </c>
       <c r="K5">
-        <f>4*1000/J5</f>
-        <v>353.09303763203803</v>
+        <v>353.47989000000001</v>
       </c>
       <c r="L5">
-        <v>22.298098</v>
+        <v>22.356749000000001</v>
       </c>
       <c r="M5">
-        <f>4*1000/L5</f>
-        <v>179.38749753454309</v>
+        <v>178.91689299999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2.4213789999999999</v>
+      </c>
+      <c r="R5">
+        <v>1651.9511620000001</v>
+      </c>
+      <c r="S5">
+        <v>3.408909</v>
+      </c>
+      <c r="T5">
+        <v>1173.3959990000001</v>
+      </c>
+      <c r="U5">
+        <v>5.7590009999999996</v>
+      </c>
+      <c r="V5">
+        <v>694.56493499999999</v>
+      </c>
+      <c r="W5">
+        <v>7.9510209999999999</v>
+      </c>
+      <c r="X5">
+        <v>503.08003200000002</v>
+      </c>
+      <c r="Y5">
+        <v>12.941837</v>
+      </c>
+      <c r="Z5">
+        <v>309.07512600000001</v>
+      </c>
+      <c r="AA5">
+        <v>22.794723999999999</v>
+      </c>
+      <c r="AB5">
+        <v>175.479207</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2.3820399999999999</v>
+        <v>2.3822779999999999</v>
       </c>
       <c r="C6">
-        <f>8*1000/B6</f>
-        <v>3358.4658527984416</v>
+        <v>3358.1297039999999</v>
       </c>
       <c r="D6">
-        <v>3.1490330000000002</v>
+        <v>3.157616</v>
       </c>
       <c r="E6">
-        <f>8*1000/D6</f>
-        <v>2540.4624213210845</v>
+        <v>2533.557233</v>
       </c>
       <c r="F6">
-        <v>5.1603320000000004</v>
+        <v>5.1407809999999996</v>
       </c>
       <c r="G6">
-        <f>8*1000/F6</f>
-        <v>1550.2878496964922</v>
+        <v>1556.1836559999999</v>
       </c>
       <c r="H6">
-        <v>7.1554180000000001</v>
+        <v>7.142544</v>
       </c>
       <c r="I6">
-        <v>1118.0339149997947</v>
+        <v>1120.049135</v>
       </c>
       <c r="J6">
-        <v>11.650085000000001</v>
+        <v>11.642694000000001</v>
       </c>
       <c r="K6">
-        <f>8*1000/J6</f>
-        <v>686.69026878344664</v>
+        <v>687.12616500000001</v>
       </c>
       <c r="L6">
-        <v>22.595167</v>
+        <v>22.603034999999998</v>
       </c>
       <c r="M6">
-        <f>8*1000/L6</f>
-        <v>354.05801603502198</v>
+        <v>353.93477100000001</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2.8257370000000002</v>
+      </c>
+      <c r="R6">
+        <v>2831.119811</v>
+      </c>
+      <c r="S6">
+        <v>3.9651390000000002</v>
+      </c>
+      <c r="T6">
+        <v>2017.5835489999999</v>
+      </c>
+      <c r="U6">
+        <v>6.7915919999999996</v>
+      </c>
+      <c r="V6">
+        <v>1177.9271220000001</v>
+      </c>
+      <c r="W6">
+        <v>9.2642310000000005</v>
+      </c>
+      <c r="X6">
+        <v>863.53635099999997</v>
+      </c>
+      <c r="Y6">
+        <v>14.814377</v>
+      </c>
+      <c r="Z6">
+        <v>540.01596500000005</v>
+      </c>
+      <c r="AA6">
+        <v>23.685217000000002</v>
+      </c>
+      <c r="AB6">
+        <v>337.76342599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2.6628970000000001</v>
+        <v>2.7046199999999998</v>
       </c>
       <c r="C7">
-        <f>16*1000/B7</f>
-        <v>6008.4937569872209</v>
+        <v>5915.8025390000003</v>
       </c>
       <c r="D7">
-        <v>3.4329890000000001</v>
+        <v>3.4780500000000001</v>
       </c>
       <c r="E7">
-        <f>16*1000/D7</f>
-        <v>4660.6615983913725</v>
+        <v>4600.278585</v>
       </c>
       <c r="F7">
-        <v>5.5947300000000002</v>
+        <v>5.5627820000000003</v>
       </c>
       <c r="G7">
-        <f>16*1000/F7</f>
-        <v>2859.8341653663356</v>
+        <v>2876.2585290000002</v>
       </c>
       <c r="H7">
-        <v>7.7934270000000003</v>
+        <v>7.8153610000000002</v>
       </c>
       <c r="I7">
-        <v>2053.0121087937309</v>
+        <v>2047.2502750000001</v>
       </c>
       <c r="J7">
-        <v>12.430429</v>
+        <v>12.427092</v>
       </c>
       <c r="K7">
-        <f>16*1000/J7</f>
-        <v>1287.1639426121174</v>
+        <v>1287.5096209999999</v>
       </c>
       <c r="L7">
-        <v>23.147345000000001</v>
+        <v>23.131132000000001</v>
       </c>
       <c r="M7">
-        <f>16*1000/L7</f>
-        <v>691.223982707304</v>
+        <v>691.70846900000004</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3.5181049999999998</v>
+      </c>
+      <c r="R7">
+        <v>4547.9034970000002</v>
+      </c>
+      <c r="S7">
+        <v>5.1865579999999998</v>
+      </c>
+      <c r="T7">
+        <v>3084.8976739999998</v>
+      </c>
+      <c r="U7">
+        <v>8.8183880000000006</v>
+      </c>
+      <c r="V7">
+        <v>1814.39057</v>
+      </c>
+      <c r="W7">
+        <v>11.965275</v>
+      </c>
+      <c r="X7">
+        <v>1337.2028849999999</v>
+      </c>
+      <c r="Y7">
+        <v>18.736124</v>
+      </c>
+      <c r="Z7">
+        <v>853.96531100000004</v>
+      </c>
+      <c r="AA7">
+        <v>24.381637999999999</v>
+      </c>
+      <c r="AB7">
+        <v>451.15919600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>4.0040019999999998</v>
+        <v>3.9429660000000002</v>
       </c>
       <c r="C8">
-        <f>32*1000/B8</f>
-        <v>7992.0039999980027</v>
+        <v>8115.7170150000002</v>
       </c>
       <c r="D8">
-        <v>4.9176219999999997</v>
+        <v>4.8756599999999999</v>
       </c>
       <c r="E8">
-        <f>32*1000/D8</f>
-        <v>6507.2101922433249</v>
+        <v>6563.2140829999998</v>
       </c>
       <c r="F8">
-        <v>7.4994560000000003</v>
+        <v>7.3821539999999999</v>
       </c>
       <c r="G8">
-        <f>32*1000/F8</f>
-        <v>4266.976164671144</v>
+        <v>4334.7778959999996</v>
       </c>
       <c r="H8">
-        <v>9.6819400000000009</v>
+        <v>9.6707339999999995</v>
       </c>
       <c r="I8">
-        <v>3305.1227336670127</v>
+        <v>3308.9524190000002</v>
       </c>
       <c r="J8">
-        <v>14.908314000000001</v>
+        <v>14.88471</v>
       </c>
       <c r="K8">
-        <f>32*1000/J8</f>
-        <v>2146.4533145733312</v>
+        <v>2149.85709</v>
       </c>
       <c r="L8">
-        <v>25.555133999999999</v>
+        <v>25.554656999999999</v>
       </c>
       <c r="M8">
-        <f>32*1000/L8</f>
-        <v>1252.1945688095395</v>
+        <v>1252.2179430000001</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5.5773260000000002</v>
+      </c>
+      <c r="R8">
+        <v>5737.5166929999996</v>
+      </c>
+      <c r="S8">
+        <v>8.1868169999999996</v>
+      </c>
+      <c r="T8">
+        <v>3908.7229309999998</v>
+      </c>
+      <c r="U8">
+        <v>13.901711000000001</v>
+      </c>
+      <c r="V8">
+        <v>2301.8750089999999</v>
+      </c>
+      <c r="W8">
+        <v>17.816782</v>
+      </c>
+      <c r="X8">
+        <v>1796.0594679999999</v>
+      </c>
+      <c r="Y8">
+        <v>24.643183000000001</v>
+      </c>
+      <c r="Z8">
+        <v>1055.0585229999999</v>
+      </c>
+      <c r="AA8">
+        <v>24.396180999999999</v>
+      </c>
+      <c r="AB8">
+        <v>450.890242</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>6.1593059999999999</v>
+        <v>6.1802859999999997</v>
       </c>
       <c r="C9">
-        <f>64*1000/B9</f>
-        <v>10390.781039292413</v>
+        <v>10355.507137000001</v>
       </c>
       <c r="D9">
-        <v>7.221222</v>
+        <v>7.2844030000000002</v>
       </c>
       <c r="E9">
-        <f>64*1000/D9</f>
-        <v>8862.7658864386103</v>
+        <v>8785.8951990000005</v>
       </c>
       <c r="F9">
-        <v>10.888814999999999</v>
+        <v>10.927439</v>
       </c>
       <c r="G9">
-        <f>64*1000/F9</f>
-        <v>5877.5909040607266</v>
+        <v>5856.8161799999998</v>
       </c>
       <c r="H9">
-        <v>13.581514</v>
+        <v>13.571501</v>
       </c>
       <c r="I9">
-        <v>4712.2875991586798</v>
+        <v>4715.7643829999997</v>
       </c>
       <c r="J9">
-        <v>20.739554999999999</v>
+        <v>20.783901</v>
       </c>
       <c r="K9">
-        <f>64*1000/J9</f>
-        <v>3085.8907049837858</v>
+        <v>3079.3063990000001</v>
       </c>
       <c r="L9">
-        <v>33.839225999999996</v>
+        <v>33.796548999999999</v>
       </c>
       <c r="M9">
-        <f>64*1000/L9</f>
-        <v>1891.2962134535821</v>
+        <v>1893.684479</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>9.1731549999999995</v>
+      </c>
+      <c r="R9">
+        <v>6976.8799479999998</v>
+      </c>
+      <c r="S9">
+        <v>13.659000000000001</v>
+      </c>
+      <c r="T9">
+        <v>4685.5551750000004</v>
+      </c>
+      <c r="U9">
+        <v>23.900269999999999</v>
+      </c>
+      <c r="V9">
+        <v>2677.7939649999998</v>
+      </c>
+      <c r="W9">
+        <v>27.707100000000001</v>
+      </c>
+      <c r="X9">
+        <v>2057.234434</v>
+      </c>
+      <c r="Y9">
+        <v>24.660826</v>
+      </c>
+      <c r="Z9">
+        <v>1054.3037079999999</v>
+      </c>
+      <c r="AA9">
+        <v>24.421215</v>
+      </c>
+      <c r="AB9">
+        <v>450.42803900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>9.2802050000000005</v>
+        <v>9.2971319999999995</v>
       </c>
       <c r="C10">
-        <f>128*1000/B10</f>
-        <v>13792.798758217086</v>
+        <v>13767.685907999999</v>
       </c>
       <c r="D10">
-        <v>10.878563</v>
+        <v>11.007547000000001</v>
       </c>
       <c r="E10">
-        <f>128*1000/D10</f>
-        <v>11766.259937089118</v>
+        <v>11628.385107</v>
       </c>
       <c r="F10">
-        <v>16.911507</v>
+        <v>16.933679999999999</v>
       </c>
       <c r="G10">
-        <f>128*1000/F10</f>
-        <v>7568.8109876902154</v>
+        <v>7558.9005559999996</v>
       </c>
       <c r="H10">
-        <v>22.86458</v>
+        <v>22.891998000000001</v>
       </c>
       <c r="I10">
-        <v>5598.178492672947</v>
+        <v>5591.4734209999997</v>
       </c>
       <c r="J10">
-        <v>36.380291</v>
+        <v>36.408901</v>
       </c>
       <c r="K10">
-        <f>128*1000/J10</f>
-        <v>3518.3885692393169</v>
+        <v>3515.62381</v>
       </c>
       <c r="L10">
-        <v>59.969425000000001</v>
+        <v>60.020207999999997</v>
       </c>
       <c r="M10">
-        <f>128*1000/L10</f>
-        <v>2134.4209987005879</v>
+        <v>2132.6150560000001</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>15.378475</v>
+      </c>
+      <c r="R10">
+        <v>8323.3219439999993</v>
+      </c>
+      <c r="S10">
+        <v>23.754358</v>
+      </c>
+      <c r="T10">
+        <v>5388.4848590000001</v>
+      </c>
+      <c r="U10">
+        <v>32.626151999999998</v>
+      </c>
+      <c r="V10">
+        <v>2635.922247</v>
+      </c>
+      <c r="W10">
+        <v>27.661324</v>
+      </c>
+      <c r="X10">
+        <v>2060.6389239999999</v>
+      </c>
+      <c r="Y10">
+        <v>24.580002</v>
+      </c>
+      <c r="Z10">
+        <v>1057.7704659999999</v>
+      </c>
+      <c r="AA10">
+        <v>24.407624999999999</v>
+      </c>
+      <c r="AB10">
+        <v>450.678831</v>
       </c>
     </row>
   </sheetData>
